--- a/yield_prediction/results/graph_descriptors/WLlinear_5/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_5/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.58</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.28</v>
+        <v>15.056</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.408</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.009</v>
+        <v>20.804</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.959</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.498</v>
+        <v>1.144</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.81366439662921</v>
+        <v>16.84963821674283</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.15517866487617</v>
+        <v>16.43819161187</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.86118484698914</v>
+        <v>31.82870338143677</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.210752800665407</v>
+        <v>2.714669928675672</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.19090267971166</v>
+        <v>24.26717963041298</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.82335322029099</v>
+        <v>29.21331096279667</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.41010587728346</v>
+        <v>7.400870475866679</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>38.63628914973928</v>
+        <v>47.06694321055678</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>43.08988772794117</v>
+        <v>48.26570520610147</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16.59031442058323</v>
+        <v>17.39197649630155</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>22.48198286101004</v>
+        <v>20.01196426306539</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>23.08666227707681</v>
+        <v>20.35907218025035</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.81275338091326</v>
+        <v>20.06207680974588</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>19.31786031914604</v>
+        <v>21.1303440566464</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>38.62607817594805</v>
+        <v>53.13834019574932</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.96342267402722</v>
+        <v>16.86876133331232</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.99854465275852</v>
+        <v>27.89187153797324</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30.5697441569243</v>
+        <v>35.01985138214004</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.171737254503828</v>
+        <v>4.69964401056059</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.56832132796006</v>
+        <v>12.70324333923861</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>18.27568222288181</v>
+        <v>16.27908357910385</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1.182650571117794</v>
+        <v>2.89130645914204</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>20.56737246553006</v>
+        <v>18.86107762858525</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>20.63661985340296</v>
+        <v>25.80550117640642</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31.53435513426374</v>
+        <v>30.3186633903586</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>34.93465111673571</v>
+        <v>31.87375559308052</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.102260845321961</v>
+        <v>1.630722814508879</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>37.47248397188784</v>
+        <v>37.10574045524278</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36.99172586546315</v>
+        <v>35.98839770348813</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6.777985841753232</v>
+        <v>7.194620084588532</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>52.87388767553679</v>
+        <v>50.39944030034815</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>52.74184657103277</v>
+        <v>48.89874657117365</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>49.34901006081269</v>
+        <v>46.12053917056157</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>55.566500741081</v>
+        <v>49.55230410421253</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>55.64703776321306</v>
+        <v>52.42217414753817</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>31.16400184564542</v>
+        <v>38.57618813503663</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>47.20834737725428</v>
+        <v>52.90991916411073</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>57.96593741472864</v>
+        <v>60.20985747969387</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>23.73645309018813</v>
+        <v>24.25557415883631</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>40.48370757980388</v>
+        <v>38.25349392613604</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>41.02423470042887</v>
+        <v>37.83863582126581</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8.279726204525399</v>
+        <v>4.955037835349319</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.99910105323617</v>
+        <v>36.801551170658</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>38.9565783436947</v>
+        <v>37.33946006031702</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>7.335058366805637</v>
+        <v>4.609368324179663</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>52.68191224030601</v>
+        <v>54.13048099430041</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8.43568212874089</v>
+        <v>6.516087027227602</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>21.75779696718586</v>
+        <v>21.47109483219722</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27.26833285909704</v>
+        <v>26.0085208472158</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-0.52634277209361</v>
+        <v>1.166010103554253</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.067149537795</v>
+        <v>32.87328514988928</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>34.39329120497008</v>
+        <v>36.99001134150453</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3.177014597902758</v>
+        <v>7.424268894532965</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>48.82213751364745</v>
+        <v>49.7189055494076</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>51.78997508156321</v>
+        <v>52.45240466398207</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>52.4399086379026</v>
+        <v>59.79458550950887</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>57.14940973844202</v>
+        <v>59.76024571308547</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>60.89007103375629</v>
+        <v>64.62467134476546</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>15.64288675078513</v>
+        <v>12.23089874743312</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.45502847904133</v>
+        <v>34.09289408007696</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>48.51571481011706</v>
+        <v>45.89909635856708</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>13.51038267909351</v>
+        <v>13.07738802402957</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.51648783245901</v>
+        <v>33.13024479630303</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.90737662366366</v>
+        <v>35.570385514563</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3.903046829095068</v>
+        <v>4.472788439520965</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.20106263690964</v>
+        <v>26.58864948677286</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>36.73345411262662</v>
+        <v>37.74426464762497</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2.811323611354474</v>
+        <v>4.460617868579465</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>46.23370905645911</v>
+        <v>46.66994600035774</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4.455481663343001</v>
+        <v>3.53111740280184</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>16.7131276969826</v>
+        <v>16.1072135963601</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>27.43188909446054</v>
+        <v>23.8577876320024</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1.32856116223428</v>
+        <v>0.7757130495433557</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.63971957358206</v>
+        <v>32.38563224815982</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>40.16338248412022</v>
+        <v>38.37330182967715</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1.479977821915018</v>
+        <v>1.401615660288932</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>48.04726528104806</v>
+        <v>46.73183496819571</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>53.81615413274514</v>
+        <v>52.22621110551621</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>46.83578147871116</v>
+        <v>50.58650755103723</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>51.20302425105132</v>
+        <v>52.14264819552156</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>55.90338625930624</v>
+        <v>60.39778044053683</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>11.48968322595436</v>
+        <v>9.138153266416232</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>27.98303287502602</v>
+        <v>24.39753965605245</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>50.84695888036739</v>
+        <v>50.2978467559437</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>10.45779941769166</v>
+        <v>9.054574724088742</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.5336736289679</v>
+        <v>28.05160416156112</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>37.91255154348536</v>
+        <v>36.32084817257351</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.492994672369282</v>
+        <v>5.016973339317776</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.59688898409451</v>
+        <v>27.97344987983082</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>42.45084602649897</v>
+        <v>41.77774853902639</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.961712906817599</v>
+        <v>1.422995539318375</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>41.52207466284258</v>
+        <v>41.73725937084929</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>27.58179121894727</v>
+        <v>22.93949978521046</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>17.8613800430727</v>
+        <v>19.3981648649951</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.20772519151789</v>
+        <v>33.87497662790324</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.21578905798967</v>
+        <v>36.87296920539737</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4.597635503720205</v>
+        <v>6.499435578537987</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>17.89932691506464</v>
+        <v>14.28441109200054</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>26.23645344103215</v>
+        <v>22.71117781291101</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>14.28552125726217</v>
+        <v>13.52718022619551</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>21.81492609076355</v>
+        <v>22.90902364649131</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>32.06204834125488</v>
+        <v>34.00799234847454</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1.352041959671443</v>
+        <v>3.191996499051154</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>11.07151291218423</v>
+        <v>10.20419715194283</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>19.46150521625617</v>
+        <v>17.07830900374018</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-2.907966320287819</v>
+        <v>2.204112139907227</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>22.915710148863</v>
+        <v>19.78443261173327</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.43714775006083</v>
+        <v>39.56857956678037</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>23.66883075960038</v>
+        <v>21.98001993660029</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>39.53362406991823</v>
+        <v>42.34277937178372</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>47.7602238032503</v>
+        <v>49.7299235436305</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2.799587155900834</v>
+        <v>4.758309353710771</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>18.79086577310828</v>
+        <v>18.96970981708782</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>30.88809759155502</v>
+        <v>33.57651778252342</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>60.17311510330332</v>
+        <v>59.72389486230337</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>56.20357654717385</v>
+        <v>60.9272014753269</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>67.45750728493107</v>
+        <v>65.65478854487381</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>67.34816743577211</v>
+        <v>64.40820180277836</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>23.8084975049958</v>
+        <v>26.3220974893097</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>62.0383325196315</v>
+        <v>63.10630894902204</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>66.28179551136132</v>
+        <v>65.08105575438914</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>27.17310394507027</v>
+        <v>30.26602618333279</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>43.44104132078463</v>
+        <v>41.7363374139651</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>46.91402269385576</v>
+        <v>44.8577631353989</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>9.988905586045952</v>
+        <v>5.949612518362574</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>44.89304526790329</v>
+        <v>45.99041448807127</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>47.12079031056105</v>
+        <v>45.88826640037781</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>10.12917853549017</v>
+        <v>8.193629914705792</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>65.45966042806002</v>
+        <v>68.66619258551817</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>71.45400194587265</v>
+        <v>68.48948600088693</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>79.09316512355974</v>
+        <v>81.89502889540468</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>84.3688865923089</v>
+        <v>84.31285382126399</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>88.09405969430244</v>
+        <v>86.27347798266445</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>33.78191074696969</v>
+        <v>38.17750754969536</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>78.24312734224807</v>
+        <v>79.69536821310997</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>82.26233051410772</v>
+        <v>81.06122899769075</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>61.67714764954367</v>
+        <v>61.9782071560242</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>48.89861237980561</v>
+        <v>48.46873863096317</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>58.35381993867103</v>
+        <v>55.66398890697926</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>63.95871573619497</v>
+        <v>63.54058840076083</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.35665149764767</v>
+        <v>12.34558682182455</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>55.13501750139191</v>
+        <v>53.88531774558633</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>63.24455270499239</v>
+        <v>61.35983538184061</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>17.78002524740938</v>
+        <v>15.34738843851851</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.09741166950479</v>
+        <v>36.94687424166886</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>43.51296644145367</v>
+        <v>43.41689684710062</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>4.856353604234748</v>
+        <v>5.003072562342819</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.10457588981528</v>
+        <v>38.33656448883383</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>44.93433092801559</v>
+        <v>47.27196464542445</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>5.113759722479109</v>
+        <v>8.522523691069591</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>61.56388529459484</v>
+        <v>62.87475509482341</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>73.21865988131958</v>
+        <v>73.30708850333916</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>76.57781878303179</v>
+        <v>77.22265018977333</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>80.11736942326993</v>
+        <v>80.28982294703917</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>89.80162166175894</v>
+        <v>89.65264395083915</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>21.42990277336905</v>
+        <v>17.43890939333849</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>73.78783643475896</v>
+        <v>72.5650397992313</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>82.11516423663639</v>
+        <v>83.03411640405956</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>58.64737724279848</v>
+        <v>60.07273012140895</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.78911303125634</v>
+        <v>29.29198105585379</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>39.61202509029447</v>
+        <v>34.89315678312129</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>49.04869155686882</v>
+        <v>45.53126534157212</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>7.629084327532247</v>
+        <v>8.666028267175353</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>46.58855596332573</v>
+        <v>49.68857354571338</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>58.93576788885177</v>
+        <v>60.49800227459423</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>13.81334013191537</v>
+        <v>12.22316312217179</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.15680149824134</v>
+        <v>35.10797062712508</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>46.42731090350873</v>
+        <v>45.65338222880521</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>7.998923253685323</v>
+        <v>5.394281235050197</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>39.56310398423565</v>
+        <v>39.61307276503658</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>51.50673189025227</v>
+        <v>50.58690045481578</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3.029014790349461</v>
+        <v>1.657710614341028</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>56.02705027650565</v>
+        <v>57.89512705120714</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>73.40150585695092</v>
+        <v>73.09720504953614</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>62.90364313427764</v>
+        <v>65.01196452403597</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>69.96624453641783</v>
+        <v>72.50799647701373</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>86.65534547489449</v>
+        <v>88.97935502304446</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>13.46407917638531</v>
+        <v>11.64062603139447</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>63.62483939907702</v>
+        <v>64.6269667761505</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>80.67457200247399</v>
+        <v>81.22732573964954</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>10.24441064724982</v>
+        <v>10.40364610129068</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>11.65758134789467</v>
+        <v>11.29477477071226</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.69857198341394</v>
+        <v>24.25840547007314</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.7906662596656595</v>
+        <v>0.5734296910286325</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.15625964418651</v>
+        <v>18.58617268040931</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>18.13901514926277</v>
+        <v>20.81146970200134</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>5.426562924334466</v>
+        <v>5.178442591600025</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.27007212871095</v>
+        <v>36.41818279596231</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>37.20444755674092</v>
+        <v>37.69783984833702</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>15.82104830485098</v>
+        <v>14.26799794620035</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>20.64308062640408</v>
+        <v>16.74726322425538</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>20.75496724812967</v>
+        <v>15.84303288407805</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>11.10208723734761</v>
+        <v>13.7930138647101</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>10.85064946370825</v>
+        <v>12.28812415548932</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>26.54973592300235</v>
+        <v>33.20856130939961</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>10.50706853419985</v>
+        <v>7.834465936206758</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>20.97203709734704</v>
+        <v>23.78688104947573</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>25.43918517052662</v>
+        <v>26.98668091933996</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-2.206512513858939</v>
+        <v>-0.8891862136636171</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>9.471264637886829</v>
+        <v>8.43583300129583</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.16452375640162</v>
+        <v>13.39239252290126</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-1.589646313479218</v>
+        <v>1.256249213935096</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>22.30820868430352</v>
+        <v>23.88110821769649</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>13.83319014947604</v>
+        <v>17.87456537607833</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>21.0367678530752</v>
+        <v>22.78852669703022</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>27.65111578001611</v>
+        <v>25.95841073759075</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2.161377949753042</v>
+        <v>0.2872820277484927</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.61916674443167</v>
+        <v>28.46178314712855</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.33565347005369</v>
+        <v>29.86643361194542</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>4.436930539896537</v>
+        <v>5.200351248956423</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>45.66103889920328</v>
+        <v>44.23942674769039</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>45.01616571822557</v>
+        <v>43.58733743071043</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>40.98652851537642</v>
+        <v>37.99109560572395</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>47.2416225350229</v>
+        <v>46.61283227966675</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>48.41310323002649</v>
+        <v>45.77334839841169</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>16.55264524634481</v>
+        <v>21.74061646835553</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.43523727870301</v>
+        <v>38.2152851631006</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>40.99393712811076</v>
+        <v>42.74117128785102</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>15.44918058317306</v>
+        <v>18.01707246605331</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.40851598671497</v>
+        <v>28.90726496237205</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.05350642695846</v>
+        <v>31.97102804802093</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.4969476721865824</v>
+        <v>-0.4871915591667495</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.31443855681945</v>
+        <v>27.64434786094973</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>31.66079078700816</v>
+        <v>31.90735308442142</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1.869240879042678</v>
+        <v>1.60588173714304</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>46.04774764699298</v>
+        <v>46.77174373758231</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>4.358690640736445</v>
+        <v>3.95226355917417</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>13.5977839460766</v>
+        <v>15.82923600431181</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>21.97025496680016</v>
+        <v>24.14212374160368</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.129288281928833</v>
+        <v>-0.1917215783414434</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>26.03631732857462</v>
+        <v>29.13924330997065</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.03098820555748</v>
+        <v>30.14018963625998</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>2.75063289657864</v>
+        <v>5.164504315472183</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>43.15356603421746</v>
+        <v>44.91327914096188</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>45.17368985100791</v>
+        <v>47.102401607244</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>44.09655360037115</v>
+        <v>46.89583869739425</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>48.35056344506319</v>
+        <v>50.33551846134547</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>53.62391632947346</v>
+        <v>56.99994359748531</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>4.056211248311318</v>
+        <v>1.029694545649438</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>21.54085933340242</v>
+        <v>22.40500653737962</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>32.58621853298199</v>
+        <v>31.17185719686839</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>7.590496114825225</v>
+        <v>9.970802096692704</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>23.82128839044487</v>
+        <v>26.57897868479628</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.99684286913941</v>
+        <v>31.16083078794406</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-2.011877832621391</v>
+        <v>-0.4905774826409974</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>22.42405866950969</v>
+        <v>25.99163387120544</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.3765176670344</v>
+        <v>33.29200280632782</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-0.7051081648321578</v>
+        <v>2.735997412238103</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>41.38439657365738</v>
+        <v>42.8858500648866</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-0.09752260233205945</v>
+        <v>1.7292578401645</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>9.415174097709208</v>
+        <v>10.17389342278102</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.24874490621491</v>
+        <v>21.82395660406745</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-0.8405430505879501</v>
+        <v>-1.12138327278155</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.5584679980282</v>
+        <v>24.22061785340918</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>33.23692519583999</v>
+        <v>32.63752939055304</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.806922983012317</v>
+        <v>-0.4759444045815719</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>42.36685571109251</v>
+        <v>40.00511114026561</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>47.49133266567073</v>
+        <v>46.19012545976925</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>40.85082903734803</v>
+        <v>42.4094380058249</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>45.11358080796128</v>
+        <v>46.58710146330583</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>49.20939747204832</v>
+        <v>52.40590372303517</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.1411095954163066</v>
+        <v>-1.719300958600847</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>18.91450977628576</v>
+        <v>18.62165912763715</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>36.45841297686166</v>
+        <v>35.66892358908098</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>3.24579524402267</v>
+        <v>5.751722746689612</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>20.74285041745161</v>
+        <v>24.18515652377542</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>27.81600616101016</v>
+        <v>28.63848654455558</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-2.919902530185016</v>
+        <v>-1.412455777422597</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>19.5604433505687</v>
+        <v>21.95680598772368</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.49379741264296</v>
+        <v>29.34069045874379</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-2.598964595092617</v>
+        <v>-0.3087770328483579</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>35.17389314106381</v>
+        <v>35.97277660788548</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.60602982398173</v>
+        <v>26.17818621028902</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.75167707400623</v>
+        <v>19.2717094660405</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>31.13802860218969</v>
+        <v>33.95038183508791</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>33.10887599354659</v>
+        <v>36.59160678997004</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>6.180807670267022</v>
+        <v>7.855711546714076</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.32318633498362</v>
+        <v>17.13181253045671</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>24.82900385951473</v>
+        <v>24.85133280183946</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>14.93903892663262</v>
+        <v>12.04270642840918</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.06365329636419</v>
+        <v>26.5626283302656</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.18569480644206</v>
+        <v>34.63641222263374</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-4.091530714209632</v>
+        <v>-0.7339316324171925</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>9.282490166520791</v>
+        <v>8.15593472255944</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>16.84334063760683</v>
+        <v>16.95642100302445</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.5509072748753354</v>
+        <v>2.608512167844321</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.91973670938169</v>
+        <v>27.43283675448525</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>43.96057363860024</v>
+        <v>46.39601605342681</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.04212599315104</v>
+        <v>25.69746114331231</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>41.05525975793304</v>
+        <v>42.63252235203393</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>47.94780808025175</v>
+        <v>48.62243723083095</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>5.981146930414084</v>
+        <v>7.656450185121884</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.57554474176245</v>
+        <v>22.49560080381055</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>35.6643297436308</v>
+        <v>35.938936288839</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>52.61170938890439</v>
+        <v>53.63031667321492</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>45.67016632037769</v>
+        <v>46.96079464516039</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>54.37219205694548</v>
+        <v>56.09080184548488</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>56.23067280115588</v>
+        <v>56.96632471008702</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>16.34170478384848</v>
+        <v>19.24739689039897</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>49.97393317822564</v>
+        <v>52.84531081228569</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>52.59388742481232</v>
+        <v>54.21780477215459</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.22727686358309</v>
+        <v>26.71444013051349</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>38.01754649911666</v>
+        <v>36.16763264355844</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>43.05347333242678</v>
+        <v>42.54166310410598</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>3.395770351624428</v>
+        <v>0.4138048241240817</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>39.79503142704947</v>
+        <v>38.80568762058439</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>42.39432581254397</v>
+        <v>42.94542329463871</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>8.041079356841745</v>
+        <v>6.855282806860838</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>63.43445608422006</v>
+        <v>62.45872381778462</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>68.34269140517256</v>
+        <v>66.342206799531</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>70.75647129375861</v>
+        <v>70.18719968538295</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>75.44738907955022</v>
+        <v>76.67122918514616</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>81.38505219484925</v>
+        <v>80.2217697557741</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.54370060219543</v>
+        <v>31.51807281854076</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>69.777131582599</v>
+        <v>71.07747374846277</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>74.14578454391645</v>
+        <v>73.6606015142773</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>53.90541908672537</v>
+        <v>54.3454595359858</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>40.02102891298385</v>
+        <v>41.50056288529849</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>46.44263759111976</v>
+        <v>47.1382914772728</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>53.41916548300065</v>
+        <v>54.90677684658334</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>7.524826565788182</v>
+        <v>9.286256857826821</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>44.30285905826795</v>
+        <v>45.51509601318914</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>49.24085004090317</v>
+        <v>50.71469368866471</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>14.66436160527257</v>
+        <v>14.93985230714273</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>32.67968719714645</v>
+        <v>34.10092339499327</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>40.25357669759745</v>
+        <v>41.72851615312044</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-0.100082913495271</v>
+        <v>-0.1878209437568756</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>35.81857480121612</v>
+        <v>38.42395255262936</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>41.1193109049032</v>
+        <v>41.67101218842582</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>4.648549399974847</v>
+        <v>6.729389689499087</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>61.36354653075304</v>
+        <v>61.33184774915432</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>70.08410165440213</v>
+        <v>69.84407267062534</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>69.46528571574551</v>
+        <v>69.16671724056594</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>72.41044875430487</v>
+        <v>73.13284681249516</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>84.05458258534858</v>
+        <v>84.07310769184603</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>17.36641204006435</v>
+        <v>14.83076899919381</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>66.91185555457085</v>
+        <v>67.81259658296287</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>73.24784831712991</v>
+        <v>74.01702700928128</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>48.29189283971178</v>
+        <v>49.18224386952322</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>25.40702715509822</v>
+        <v>24.65012591709785</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>32.13764090783688</v>
+        <v>32.1284436574479</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>38.76411377118556</v>
+        <v>38.44290144370132</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>3.125351040778845</v>
+        <v>5.627693456263529</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>38.54892405021053</v>
+        <v>38.93843554359035</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>45.68095862216393</v>
+        <v>46.08042846917878</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10.8798000898339</v>
+        <v>8.974371882130171</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.17062099175392</v>
+        <v>33.6771402876882</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>41.99707515108203</v>
+        <v>42.20645157869681</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.5373736201273438</v>
+        <v>-0.8120943805835346</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>33.99812082449172</v>
+        <v>36.48310617699234</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>43.89826969847013</v>
+        <v>41.94483832560385</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>2.97402846213123</v>
+        <v>0.9475496425024694</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>56.07935823213273</v>
+        <v>57.44765840290313</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>69.5198385524986</v>
+        <v>67.82242186895824</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>60.12057911659768</v>
+        <v>62.08453394116417</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>66.59163332460015</v>
+        <v>69.16307846845555</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>79.87003664211403</v>
+        <v>80.22881411821247</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>9.411949909387232</v>
+        <v>7.868520689906735</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>62.29218470805939</v>
+        <v>64.61784310685984</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>73.88433564860827</v>
+        <v>73.86030936396894</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>11.77627036583109</v>
+        <v>12.19363154604492</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.97110247666862</v>
+        <v>12.24197610858133</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>27.00758403219491</v>
+        <v>27.44011461434594</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>1.208495482257895</v>
+        <v>2.368378787682762</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>20.87343641557153</v>
+        <v>18.8539427960188</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>22.84067181524035</v>
+        <v>22.05898680629704</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>5.106543460319227</v>
+        <v>7.163393161404663</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>40.17789600031642</v>
+        <v>42.22779940628656</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>42.19368978766476</v>
+        <v>45.14806551798151</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>17.13017981339133</v>
+        <v>14.62728515074456</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>23.4716165285468</v>
+        <v>17.70903324023313</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>24.29943658007314</v>
+        <v>18.04206662313099</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>23.60585489332767</v>
+        <v>25.40400003557517</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>18.79519502661719</v>
+        <v>20.69038507571682</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>33.69390729056771</v>
+        <v>37.6471092744436</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>17.18227611542012</v>
+        <v>16.52412436317295</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.39331181355074</v>
+        <v>29.22611796095321</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>33.82755811511606</v>
+        <v>34.0472271730843</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>3.440652441565515</v>
+        <v>6.177232242636585</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>17.80014855321079</v>
+        <v>15.61725817059439</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>20.84404006772693</v>
+        <v>20.36110857539172</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-0.05273780729948285</v>
+        <v>3.365803646742652</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>27.85989867591736</v>
+        <v>25.44795268677522</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>20.56351487367252</v>
+        <v>24.70184734930585</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.66258613494787</v>
+        <v>34.26304862864978</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>36.31245207490768</v>
+        <v>34.74782394339307</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>4.178372650624389</v>
+        <v>2.48349068203698</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>39.2244646835995</v>
+        <v>39.44400137614985</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.5773857483678</v>
+        <v>40.21745002084021</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>7.747663539197493</v>
+        <v>6.338479582840236</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>58.06649375966909</v>
+        <v>57.22894638490446</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>55.2482610592354</v>
+        <v>53.62007564638651</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>51.92393189300432</v>
+        <v>47.91398566251217</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>58.41656870944431</v>
+        <v>55.88270644912498</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>59.37776271309848</v>
+        <v>57.44906570212105</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>32.41244135852473</v>
+        <v>36.45975686735312</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>46.79947576508336</v>
+        <v>45.65491877691326</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>53.76069697881134</v>
+        <v>47.52355238988073</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>25.97602595731796</v>
+        <v>26.77931732319347</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>45.87836250814365</v>
+        <v>41.96433700248095</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>45.09078360236013</v>
+        <v>41.03654251213815</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>8.450589453436628</v>
+        <v>6.434476231812763</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>40.94018164463746</v>
+        <v>41.13644618742094</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>41.91787317424011</v>
+        <v>42.18985094267238</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>8.491117778995378</v>
+        <v>5.350340783444818</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>59.61129481273896</v>
+        <v>61.58143351041682</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>10.06190930226419</v>
+        <v>7.545965874219611</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.81412570875156</v>
+        <v>24.21762235256218</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>30.3602908864239</v>
+        <v>29.10599367769452</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>1.911864957688714</v>
+        <v>1.455586467190663</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>35.57614770215957</v>
+        <v>34.02473643570565</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>37.29869371742317</v>
+        <v>37.79975280878195</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>5.723235897088266</v>
+        <v>6.748181305357644</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>55.93896713036395</v>
+        <v>54.73950449740568</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>55.83697393459258</v>
+        <v>56.93510978397011</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>56.5791782184323</v>
+        <v>58.4532999828964</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>61.56742301971009</v>
+        <v>63.94513778367848</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>66.10651949895839</v>
+        <v>68.95472899608988</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>18.9537147578599</v>
+        <v>17.08697549826766</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>37.06987756950581</v>
+        <v>32.73044256696729</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>45.97725350583376</v>
+        <v>38.79447214114779</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>16.83901023544611</v>
+        <v>16.92395443388058</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>37.32899745372821</v>
+        <v>37.61321515349395</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>40.66072746685169</v>
+        <v>39.15063523717123</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>5.25166496558526</v>
+        <v>6.319978807484212</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>33.81562424180505</v>
+        <v>32.59784104841389</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>40.3727934648276</v>
+        <v>40.24083655227896</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>5.179722236902602</v>
+        <v>4.666304676015827</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>54.79139089325324</v>
+        <v>55.05366645620207</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>5.733079522192288</v>
+        <v>4.776665262987372</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.72672474343415</v>
+        <v>20.37728337064254</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>30.67893379612746</v>
+        <v>29.11828748209178</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>2.73555774617132</v>
+        <v>1.947047134587102</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>36.74459938390178</v>
+        <v>35.62647360642961</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>42.38813610029721</v>
+        <v>41.95795655473722</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>3.978097505410471</v>
+        <v>3.090986403822406</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>55.58016007642388</v>
+        <v>53.77617676437838</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>58.34324851686438</v>
+        <v>57.93708540927479</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>51.84833283262768</v>
+        <v>53.18303293922591</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>57.09634494650661</v>
+        <v>57.64165405730394</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>61.7875149917457</v>
+        <v>65.1890512074243</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>15.88602808207644</v>
+        <v>15.35467326008964</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>32.04872529996479</v>
+        <v>26.63663262627866</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>50.03710587979344</v>
+        <v>41.57534816142626</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>13.03899570685197</v>
+        <v>12.63201441252077</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>34.92617125093747</v>
+        <v>33.21838279268269</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>41.98394319752933</v>
+        <v>38.80484191961388</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>6.526772253074281</v>
+        <v>6.305426452145664</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>34.33301527250089</v>
+        <v>33.95512651257263</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>44.93424416760946</v>
+        <v>44.65016887943219</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>3.589483793784861</v>
+        <v>1.988874560262417</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>49.85844049670834</v>
+        <v>49.8805284270028</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>32.88725315220617</v>
+        <v>28.10173299674695</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.20181805306048</v>
+        <v>23.76156636651187</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>39.81953457366183</v>
+        <v>40.62348335399789</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>41.38399159738454</v>
+        <v>42.46437830235027</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>12.34934022907465</v>
+        <v>10.28157336139359</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>27.41670357907756</v>
+        <v>21.96865748673723</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>33.57034847072889</v>
+        <v>29.66833706181455</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>18.8367483303991</v>
+        <v>18.63657704384046</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.73334605503702</v>
+        <v>28.63410392241504</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>36.74721016406179</v>
+        <v>37.84169388813437</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>1.552273344550596</v>
+        <v>5.381980955972271</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>14.16680754098171</v>
+        <v>12.73127530379755</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>21.19614524974073</v>
+        <v>19.32703607119395</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-0.4231565095852652</v>
+        <v>3.816328421733445</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.665638691568</v>
+        <v>25.40541339782095</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>44.72982814960555</v>
+        <v>45.4487074873994</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.45633619708098</v>
+        <v>25.19043720151286</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>44.95804895947641</v>
+        <v>45.97323284158233</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>51.33446355516749</v>
+        <v>52.01137760679804</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>10.5208603847285</v>
+        <v>9.022178364501965</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>27.43447934133488</v>
+        <v>23.53714810697133</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>37.75091886798312</v>
+        <v>38.11242517227487</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>64.31554584401981</v>
+        <v>63.96820485528953</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>62.02441464092334</v>
+        <v>65.342828690339</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>72.85309204403433</v>
+        <v>71.08164435687833</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>72.76741251585064</v>
+        <v>70.32436560157652</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>30.85225615726492</v>
+        <v>29.55908884819632</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>69.4192888223002</v>
+        <v>68.31600033528679</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>71.16292953086931</v>
+        <v>70.55496599662517</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>30.34106703493028</v>
+        <v>32.26760975668307</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>47.89425084507135</v>
+        <v>45.1697278287449</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>49.65317971676907</v>
+        <v>46.69659923021342</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>9.719944898653331</v>
+        <v>7.207363404920333</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>47.09619018374761</v>
+        <v>48.46287833570513</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>47.29286840464322</v>
+        <v>48.10177361074392</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>10.9159567843471</v>
+        <v>7.88414426935903</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>69.85685883546307</v>
+        <v>72.88483258148773</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>73.75803299923298</v>
+        <v>71.7058394339486</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>81.17077284328757</v>
+        <v>82.97822829237792</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>86.81248873314145</v>
+        <v>85.60518994679779</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>89.53359306693362</v>
+        <v>88.15044914966488</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>39.01960250854155</v>
+        <v>41.00747078792785</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>82.95291130595022</v>
+        <v>82.91258736484481</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>84.13240952324365</v>
+        <v>83.51682843775941</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>66.29261348919995</v>
+        <v>66.91877472392585</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>56.39183556002929</v>
+        <v>54.94395983347933</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>65.30013816738908</v>
+        <v>62.73254512977778</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>70.48217131965221</v>
+        <v>70.20570746553864</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.95145498316165</v>
+        <v>20.73858476866312</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>64.27596273800204</v>
+        <v>62.45248376440385</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>68.89621645972798</v>
+        <v>68.17403345753921</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>21.70552171397408</v>
+        <v>20.30287200947846</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>41.52083261855958</v>
+        <v>40.76639713766623</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>46.42886687203652</v>
+        <v>45.09294387957627</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>5.341312064421274</v>
+        <v>6.284958542280371</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>41.43679538327279</v>
+        <v>39.43426405753247</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>45.21765465368848</v>
+        <v>44.89290420680712</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>6.746032725047709</v>
+        <v>8.972184200387147</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>67.10649090448894</v>
+        <v>66.69511301587011</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>75.5069826159738</v>
+        <v>74.97431996963468</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>79.83501726620344</v>
+        <v>77.40887631541239</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>83.67187409144064</v>
+        <v>82.49255621978232</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>91.66174386054053</v>
+        <v>89.88278114552591</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.99881962799967</v>
+        <v>26.63686529692625</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>79.98904330683814</v>
+        <v>79.28537214800743</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>84.12254507059323</v>
+        <v>84.8889408062025</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>62.8672738459415</v>
+        <v>63.55419773064358</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>38.2355901084607</v>
+        <v>35.28079573389657</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>47.56759247449148</v>
+        <v>42.24501576008</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>55.66382482231936</v>
+        <v>52.94182088098601</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>16.20646134900217</v>
+        <v>15.55573418789282</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>57.41501450525531</v>
+        <v>57.65108911573286</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>65.38912369524809</v>
+        <v>65.71509286991135</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>18.14260681325925</v>
+        <v>17.84760233316697</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>41.18645557745909</v>
+        <v>39.71012141731639</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>49.7685668244367</v>
+        <v>47.62305608737681</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>8.069860361923727</v>
+        <v>7.042331456068723</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>42.86408797093689</v>
+        <v>43.17902458081601</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>51.59300555152075</v>
+        <v>50.45790880412254</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>4.995105331705798</v>
+        <v>3.263880386532886</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>62.31502334930803</v>
+        <v>63.12332364187132</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>76.07253404882347</v>
+        <v>74.07796026101265</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>67.66967218430952</v>
+        <v>68.99676857816883</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>75.63797834139019</v>
+        <v>76.84101452734853</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>88.53556030985051</v>
+        <v>87.39524485515211</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>21.28258269356264</v>
+        <v>20.57836408675666</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>72.51131291568777</v>
+        <v>72.71208697457733</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>84.48446613603649</v>
+        <v>83.70363621377363</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>11.29510380036671</v>
+        <v>9.908315948254529</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.42772701177807</v>
+        <v>12.21481981590999</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.81777909613435</v>
+        <v>18.66772757006992</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>0.4919042935433602</v>
+        <v>2.370712038280335</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>7.028549907415872</v>
+        <v>9.290195851390568</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>8.443801162039083</v>
+        <v>10.18224835450816</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.222269766129731</v>
+        <v>6.071111849327799</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.41366253313235</v>
+        <v>21.97775843527561</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>22.44476432777956</v>
+        <v>23.93066279996431</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>10.11183018860162</v>
+        <v>12.96139369660667</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>13.84845955948343</v>
+        <v>15.51417308403567</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>13.584959309337</v>
+        <v>15.32960706332991</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>8.43925969934844</v>
+        <v>8.116363441434626</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>9.18523960243871</v>
+        <v>9.673331014903741</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>16.02306756718152</v>
+        <v>17.23588195656827</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>10.57432998214257</v>
+        <v>9.927408787208503</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>18.5540695371527</v>
+        <v>20.64505879447843</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>23.07321738274106</v>
+        <v>24.7195488206518</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.6376356927327613</v>
+        <v>1.939668618326444</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>6.236166578191852</v>
+        <v>6.724696570825756</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>10.59718228803402</v>
+        <v>10.70091932898444</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-0.08609205555683275</v>
+        <v>2.56363838764419</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>14.69254885409827</v>
+        <v>17.19292248009664</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>14.02590082428051</v>
+        <v>14.98447842894058</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>20.27163888176784</v>
+        <v>21.21416938389343</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.28391669834781</v>
+        <v>21.20414132757512</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>2.615265068595772</v>
+        <v>1.974132479554324</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.12651156731682</v>
+        <v>22.14827626005437</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>22.37862139279896</v>
+        <v>23.56214996074552</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>4.429916049757537</v>
+        <v>4.349011574646266</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>34.00811919191946</v>
+        <v>33.1366204094187</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.58318634914483</v>
+        <v>32.83312419137047</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>32.10826415105237</v>
+        <v>31.31486106221352</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.49836602880602</v>
+        <v>38.5430024597614</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>38.69675279481456</v>
+        <v>38.97941244664464</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>13.79451185537819</v>
+        <v>12.81882394926149</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.20796235562016</v>
+        <v>32.60642380887098</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.16693268861735</v>
+        <v>35.16608806649555</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>13.49917955432305</v>
+        <v>13.64388600530335</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.79474511503269</v>
+        <v>25.91586104373433</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.69149762166585</v>
+        <v>29.50538853638366</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>3.310022234632694</v>
+        <v>1.849449001088104</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.54523873840632</v>
+        <v>25.24201772960266</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.07948063331111</v>
+        <v>29.59446029056904</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>3.766964824161139</v>
+        <v>2.288568590428707</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>38.44131046867651</v>
+        <v>41.17061091884689</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>6.497512814882214</v>
+        <v>6.169340013143856</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>13.94088330775155</v>
+        <v>15.56169729880313</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>19.01172814953955</v>
+        <v>19.83524770201211</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>1.516961042294792</v>
+        <v>2.302895732338712</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>17.87548005760472</v>
+        <v>21.38771274339994</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>21.88918495383636</v>
+        <v>23.32861792417602</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>3.869150261958051</v>
+        <v>6.991514942602368</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>32.03214126538975</v>
+        <v>34.35400593811348</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.65974128642875</v>
+        <v>35.84315522033788</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.34068045125273</v>
+        <v>34.91614853927163</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>37.56421353530493</v>
+        <v>37.05725212555249</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>42.99792104918676</v>
+        <v>43.84619369176286</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>4.096530576523367</v>
+        <v>4.84983310283603</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>20.60914568170717</v>
+        <v>20.74145434628164</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.23541785407059</v>
+        <v>24.45750100833512</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>6.839932001688499</v>
+        <v>8.709641353769868</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>20.57843532760359</v>
+        <v>22.45924748578849</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.34188162248972</v>
+        <v>29.09883971284192</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>1.135688819047662</v>
+        <v>2.068814873971331</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>18.28609552044013</v>
+        <v>20.25456693965495</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.93578773075459</v>
+        <v>30.29393559379493</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>1.704329807152398</v>
+        <v>4.416157267396596</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.54627485838138</v>
+        <v>32.98252543053178</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>2.675564178568205</v>
+        <v>4.277323290765107</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>9.505306152136235</v>
+        <v>11.4757809183348</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>18.75022421771249</v>
+        <v>17.6688567030288</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-0.766371929596108</v>
+        <v>0.9643176694655438</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>14.89104070655211</v>
+        <v>13.68920828424875</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.4229317613193</v>
+        <v>24.44399862225118</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>0.3293542215954623</v>
+        <v>1.73248523404995</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.4652101722849</v>
+        <v>26.98119286434454</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.11248611395781</v>
+        <v>34.28758872545852</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.18520545150527</v>
+        <v>27.66119995662385</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>32.00367311778935</v>
+        <v>31.03273774839795</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.72177407990023</v>
+        <v>37.44589938747758</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>0.4810337588949771</v>
+        <v>2.490892755937296</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>17.0213707140274</v>
+        <v>19.60307468128243</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.84857137642343</v>
+        <v>28.16122819326529</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>3.918960881566665</v>
+        <v>5.895186611850942</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>17.46537659897643</v>
+        <v>19.24038843727015</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.82992017842652</v>
+        <v>24.90513254429702</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>0.07540253002805386</v>
+        <v>1.585293901023984</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>14.31572324470399</v>
+        <v>17.0180660801716</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.49913517241053</v>
+        <v>26.71559088980806</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-0.5836103736351212</v>
+        <v>1.328063667626541</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.92992878165767</v>
+        <v>26.27540964928222</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>20.28548901146197</v>
+        <v>19.97611863724319</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>15.92018572662399</v>
+        <v>16.79276824565476</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>26.81881674444546</v>
+        <v>28.73947320794394</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>27.83076157908258</v>
+        <v>30.89439645784872</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>3.572644981020552</v>
+        <v>6.40367337068464</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>12.52249615484549</v>
+        <v>12.83467332094108</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>18.02600091481394</v>
+        <v>18.88852743381953</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>14.95773126443768</v>
+        <v>12.87461103154146</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>22.349153684458</v>
+        <v>25.00597035461676</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.88082308492559</v>
+        <v>30.05550413524978</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-1.834895207703404</v>
+        <v>2.391616115808269</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>6.108494976939031</v>
+        <v>7.335548841590501</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>13.11917310884644</v>
+        <v>12.6545306892099</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>1.147237608472881</v>
+        <v>4.137415357706868</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.38243504471237</v>
+        <v>21.22612910547336</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.42547413109534</v>
+        <v>35.05078242067204</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>22.50695074243218</v>
+        <v>22.11430954235871</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>34.74251441708886</v>
+        <v>35.51565265246913</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>41.75992088758852</v>
+        <v>40.03111555300578</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>5.475685436741259</v>
+        <v>7.233551700299792</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>17.91197598100659</v>
+        <v>18.26322269776862</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>27.68422083352351</v>
+        <v>28.15829423584134</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>46.78785746376997</v>
+        <v>48.42297448556707</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.26307332309124</v>
+        <v>41.06708871688076</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>48.42471148647267</v>
+        <v>50.75087139972811</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>50.48260520242025</v>
+        <v>51.71880315107971</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>12.53104052606145</v>
+        <v>12.47378478757121</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>42.69450724241704</v>
+        <v>45.91664785503534</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>46.49501639467806</v>
+        <v>49.30075736671348</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>21.98099502300092</v>
+        <v>23.43943958355615</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.51861005194273</v>
+        <v>34.52660681909251</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>41.62117763646959</v>
+        <v>40.51792877380194</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>6.512420343158194</v>
+        <v>3.593406153075382</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.11282112668425</v>
+        <v>36.03952682476049</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>40.54222442740689</v>
+        <v>40.58133674363101</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>10.56881307761835</v>
+        <v>9.297584009690908</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>57.01013355468226</v>
+        <v>57.31860107104588</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>62.3538119929281</v>
+        <v>60.92272262645247</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>64.15215670420923</v>
+        <v>65.70212444651615</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>69.46833632842859</v>
+        <v>72.7678667491864</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>76.8126678237162</v>
+        <v>76.97096673103258</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.18050002947615</v>
+        <v>28.22336818339707</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>63.37548649630502</v>
+        <v>66.5922382164933</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>68.01252522614678</v>
+        <v>68.93152625804744</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>48.34461710226626</v>
+        <v>49.78039341559494</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>33.15866497676785</v>
+        <v>33.6168291318064</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>39.87342370776308</v>
+        <v>39.9316797209175</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>47.39082308854824</v>
+        <v>48.62252834391458</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>5.496821623137102</v>
+        <v>8.526618285073074</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>36.96854271926171</v>
+        <v>37.69707069214262</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>43.49409019667991</v>
+        <v>45.12818294946344</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>15.38240447128104</v>
+        <v>15.835149485019</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.15224740629418</v>
+        <v>31.90095181192776</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>39.43782082593711</v>
+        <v>41.01266155550505</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>2.974654646462518</v>
+        <v>2.721930923648301</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.03113266913821</v>
+        <v>31.78172997833663</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.10520485133911</v>
+        <v>38.89398736050413</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>7.474941195175099</v>
+        <v>9.23302853369152</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>54.2490201237178</v>
+        <v>52.03291428727923</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>64.32315962387392</v>
+        <v>65.08903026523078</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>61.78214472414665</v>
+        <v>60.06947895579604</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>65.13097552151272</v>
+        <v>64.71059171616008</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>78.76404741826794</v>
+        <v>79.06925546284477</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>18.4951255191916</v>
+        <v>17.8489217985771</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>59.71880846075584</v>
+        <v>59.23879726790449</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>67.10412789993636</v>
+        <v>66.92728508634401</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.02959520440777</v>
+        <v>42.79975109640299</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>19.03821067555216</v>
+        <v>19.90745468867132</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>25.04092958114755</v>
+        <v>25.38886616244537</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>32.36400746746887</v>
+        <v>32.15827124787749</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>2.210496733452928</v>
+        <v>5.284012355504156</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>30.00165941881062</v>
+        <v>28.61888105398892</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.19640773075105</v>
+        <v>38.42962840271382</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>11.74941910597188</v>
+        <v>10.42053747527859</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.40208278027326</v>
+        <v>30.57534487947198</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>39.7520044096977</v>
+        <v>39.96042072817384</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>2.486342250008494</v>
+        <v>2.109686038048739</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>27.45141028499109</v>
+        <v>30.12985874525251</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.54239644511703</v>
+        <v>38.82523901623892</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>4.15376737325894</v>
+        <v>2.919366512755268</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>46.31951815086322</v>
+        <v>46.86914019350566</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>60.89715085221675</v>
+        <v>61.97219527069882</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>50.45347142686137</v>
+        <v>51.62323621475558</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.86023876862298</v>
+        <v>57.60837863880157</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>71.64525396783182</v>
+        <v>73.77088634238294</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>10.07612556099134</v>
+        <v>9.594327715523164</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>52.47836910135509</v>
+        <v>53.53430419502588</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>64.86783179965298</v>
+        <v>65.61553129568735</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>18.66346335363799</v>
+        <v>22.42020281220701</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>19.68797241452982</v>
+        <v>16.32860916069392</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>33.76013181685445</v>
+        <v>35.72547646494407</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>12.10189619843439</v>
+        <v>7.371758119464719</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>37.25601714118993</v>
+        <v>35.68131442967358</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>39.15537653887034</v>
+        <v>39.75704036942533</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>10.86912626479443</v>
+        <v>12.83176670763974</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>47.19772295249404</v>
+        <v>55.78288441666395</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>51.11357695308348</v>
+        <v>58.31786122736395</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>23.88274513764422</v>
+        <v>17.30142858274866</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.50791920642821</v>
+        <v>20.65417046236809</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.52332994102672</v>
+        <v>20.59749632905705</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>31.90393604311117</v>
+        <v>33.7922140126156</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>22.47859003227328</v>
+        <v>16.78531672319784</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>44.69873691486967</v>
+        <v>43.41266429801267</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>20.7347957202809</v>
+        <v>18.12300991766517</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>27.9474922821187</v>
+        <v>28.85987358583519</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>34.39131422339572</v>
+        <v>39.04527387131839</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>25.95851458981659</v>
+        <v>27.88434217435304</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>33.88891250753162</v>
+        <v>33.72348818855866</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>35.39026349647252</v>
+        <v>36.23147140798788</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>2.244153260042065</v>
+        <v>4.875629013791976</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.15264069313557</v>
+        <v>22.68996312719665</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>26.96923097937791</v>
+        <v>31.1166284702531</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>37.00914793507958</v>
+        <v>34.36531351159974</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>42.14346179632075</v>
+        <v>37.84564345134456</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>12.99825567661344</v>
+        <v>7.259120928894003</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>54.03049139475891</v>
+        <v>54.41394500153194</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>52.18514472583376</v>
+        <v>53.02340916995898</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>12.94784059517245</v>
+        <v>8.876641656864368</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>64.4661781949881</v>
+        <v>60.45323484112296</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>63.14959877178794</v>
+        <v>58.63564693658768</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>60.69531372161539</v>
+        <v>57.31292766893777</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>65.80786504699034</v>
+        <v>61.27714570154902</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>64.78587623355614</v>
+        <v>61.0830831813756</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>42.61833442504955</v>
+        <v>54.7397535138859</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>53.83146057291247</v>
+        <v>62.42612791999221</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>66.95063146270127</v>
+        <v>69.63981587790879</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.76495950348822</v>
+        <v>29.07946780944295</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>42.96527345935979</v>
+        <v>38.62581938586807</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>43.34493331462463</v>
+        <v>38.72003808232446</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.72680654589567</v>
+        <v>27.9116896874187</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>53.73585434016665</v>
+        <v>51.15939866888937</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>52.05441505440128</v>
+        <v>48.2453352570257</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>9.887847019622257</v>
+        <v>6.034830432469654</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>56.48153407067299</v>
+        <v>55.89422449660714</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>15.69438063437189</v>
+        <v>13.61115244968119</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.40394159462564</v>
+        <v>26.1609656871116</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>35.26390074227994</v>
+        <v>32.50451630669492</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>9.715455228974047</v>
+        <v>5.006268625557585</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>49.27997353862756</v>
+        <v>48.51934643860245</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>49.70362119107425</v>
+        <v>52.18247708468719</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>9.834960570629676</v>
+        <v>8.235969563938745</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>61.30707095928059</v>
+        <v>59.83441137400511</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>62.522561155327</v>
+        <v>64.12323652936115</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>64.94326533902047</v>
+        <v>69.52316935839985</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>68.44415912756473</v>
+        <v>70.18514744478976</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>70.59356218839835</v>
+        <v>72.42114030456882</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>27.83235103432879</v>
+        <v>19.98460078795301</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>43.19606633484506</v>
+        <v>39.80399614353166</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>58.10888158619278</v>
+        <v>53.13101363797573</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>20.36303866508488</v>
+        <v>22.46378862575119</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>34.88459818751392</v>
+        <v>36.02833185388695</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>39.42878876090337</v>
+        <v>37.71739291375724</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>25.68715449782481</v>
+        <v>28.28699914169825</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>46.35964876005578</v>
+        <v>44.51296259752269</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>50.50327325673651</v>
+        <v>51.11847848964568</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>7.067399932152743</v>
+        <v>7.640025988809686</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>52.03115110935862</v>
+        <v>52.30133558374281</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>9.103377565456672</v>
+        <v>6.269061897851575</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>21.41227239461831</v>
+        <v>18.05685581903588</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>33.48908057799045</v>
+        <v>28.17924117079615</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>10.22063373212783</v>
+        <v>6.107966284894612</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>50.36499859873685</v>
+        <v>52.52518838290484</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>54.36252495784196</v>
+        <v>54.52199912933808</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>6.136850730594333</v>
+        <v>3.730938863505266</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>59.71332581671213</v>
+        <v>61.75738781055607</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>63.08862606922149</v>
+        <v>62.50596069817554</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>57.82946078306344</v>
+        <v>64.2186156802701</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>61.44461495143156</v>
+        <v>65.15750709788816</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>64.76653371239144</v>
+        <v>71.8441159743774</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>21.09079486372642</v>
+        <v>11.64870781805341</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>34.03595949356537</v>
+        <v>29.31664945954088</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>58.7633933122185</v>
+        <v>57.31071137020217</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>16.22660965810318</v>
+        <v>15.40464580830611</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>33.18160100421483</v>
+        <v>32.09857739691005</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>41.43856369276352</v>
+        <v>37.89765843370755</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.19168058780704</v>
+        <v>28.03981335978326</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>49.33508866386745</v>
+        <v>47.43881506890162</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>57.66033917594488</v>
+        <v>53.72046912940169</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>5.876509546739857</v>
+        <v>3.257288617356831</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>48.91002216746995</v>
+        <v>50.88982980998114</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>31.54351439694978</v>
+        <v>26.64003800465934</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.29987750631783</v>
+        <v>23.00664235834437</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>36.38034056469149</v>
+        <v>38.58088671845924</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>37.96161739977759</v>
+        <v>42.35283275518493</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>13.54302050525821</v>
+        <v>10.47794766931704</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>22.26397275854645</v>
+        <v>17.00160564368267</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>31.27145175501794</v>
+        <v>26.67439603137696</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>19.54982249480595</v>
+        <v>15.06363127880343</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>25.15700067631017</v>
+        <v>23.69133983265343</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>35.174297624571</v>
+        <v>36.42434896335644</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.0815050940595</v>
+        <v>27.34303884980181</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.40051230794546</v>
+        <v>32.32581786520193</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>37.42662721291556</v>
+        <v>36.73416064388266</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>1.452479717692867</v>
+        <v>4.761519016511883</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.31830519927628</v>
+        <v>26.06430004817486</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>45.17445746098704</v>
+        <v>47.8999504091088</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>30.29709950379343</v>
+        <v>25.57157684916779</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>46.40692383441205</v>
+        <v>48.58071112506478</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>54.24993772435576</v>
+        <v>56.70319157877319</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>11.94725462971163</v>
+        <v>8.467354032341028</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>26.26770750943485</v>
+        <v>22.2463990382463</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>37.26821418531475</v>
+        <v>38.49523888946948</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>61.18082190275615</v>
+        <v>59.41265998363353</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>58.97432159825472</v>
+        <v>62.13689234831413</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>68.74676364745774</v>
+        <v>66.14834101460326</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>67.11254340195295</v>
+        <v>63.31668486560368</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>33.27636474261915</v>
+        <v>34.08370178373009</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>64.57148994664936</v>
+        <v>62.47121341454539</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>68.92963580967259</v>
+        <v>66.8284418130274</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>31.24446290717006</v>
+        <v>34.06416012190193</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>44.57797642185962</v>
+        <v>40.40686236431219</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>46.80620701489953</v>
+        <v>42.93667157185254</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>30.31300027548839</v>
+        <v>29.12315620278099</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>61.21458332288816</v>
+        <v>59.34972306894569</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>58.44837074737616</v>
+        <v>53.58423968054905</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>11.44332472661702</v>
+        <v>8.021706344703514</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>68.50237426926972</v>
+        <v>69.84596542428969</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>71.78689193052179</v>
+        <v>67.79002412310543</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>82.66894287794278</v>
+        <v>83.5245550952253</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>86.61281633340404</v>
+        <v>84.00646170642554</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>89.65309726368142</v>
+        <v>85.56395859760039</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.30641170795843</v>
+        <v>45.0628534231645</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>81.44578102752973</v>
+        <v>79.8892349887564</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>83.39604411479357</v>
+        <v>82.22996061548548</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>63.68396657315418</v>
+        <v>66.02586223029387</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>53.7552815238352</v>
+        <v>53.63480404019372</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>61.48281716739233</v>
+        <v>58.48041354476786</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>64.78971896550773</v>
+        <v>63.02117235487489</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>24.85482984989968</v>
+        <v>26.5974925348551</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>59.67820093810971</v>
+        <v>57.32623715481995</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>66.95431148079592</v>
+        <v>64.45600939287796</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>23.59635153081667</v>
+        <v>25.35644135296671</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.93884871695523</v>
+        <v>38.59646116416761</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>44.4185750882216</v>
+        <v>43.64436093694714</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>26.36780557605766</v>
+        <v>29.80488750219699</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>55.52960673685737</v>
+        <v>54.87495128108679</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>56.63191744970532</v>
+        <v>57.24362477678443</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>8.005821827190179</v>
+        <v>11.96166488358627</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>66.27750520880417</v>
+        <v>68.33889074180691</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>74.17223933969262</v>
+        <v>75.05311472220906</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>82.09361350198866</v>
+        <v>82.92231479729807</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>83.86152084128223</v>
+        <v>82.10504536755249</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>91.95055532326811</v>
+        <v>89.29170524441247</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.01691614453279</v>
+        <v>32.25090212742836</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>78.64642667344415</v>
+        <v>76.28316857577425</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>83.88264117670388</v>
+        <v>84.17248974730268</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>61.35015925630226</v>
+        <v>61.56143450771096</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>35.77252580851437</v>
+        <v>32.52207988793583</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>43.5083156340008</v>
+        <v>38.912288542546</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>51.03773702148021</v>
+        <v>47.63881804747903</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>17.64895969100436</v>
+        <v>16.91816323511075</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>52.54000227883918</v>
+        <v>55.78388693397761</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>63.00789017496491</v>
+        <v>62.94394737963343</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>19.75464756584406</v>
+        <v>19.31370176623672</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.52087690642887</v>
+        <v>36.98922853648175</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>48.42209617783097</v>
+        <v>44.86732644315563</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>30.99439025998005</v>
+        <v>30.2051582552918</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>60.12021391013459</v>
+        <v>57.03163686672605</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>66.12350732206767</v>
+        <v>61.77084796453599</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>7.041595476589851</v>
+        <v>3.851055687016036</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>63.83530088201404</v>
+        <v>66.69994229324185</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>76.17717076858742</v>
+        <v>72.8574735832311</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>70.91946118928394</v>
+        <v>77.96716527551257</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>76.65013138827298</v>
+        <v>79.66400801225267</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>90.97532013655808</v>
+        <v>90.97373677274207</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>23.77942410996389</v>
+        <v>22.13032896063608</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>71.34224472577311</v>
+        <v>73.17158870271139</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>84.42365780660046</v>
+        <v>84.07935762508667</v>
       </c>
     </row>
   </sheetData>
